--- a/Code/Results/Cases/Case_6_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_43/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.92160230890737</v>
+        <v>26.92160230890738</v>
       </c>
       <c r="C2">
-        <v>15.19815020508872</v>
+        <v>15.19815020508855</v>
       </c>
       <c r="D2">
-        <v>2.927468452799125</v>
+        <v>2.92746845279914</v>
       </c>
       <c r="E2">
-        <v>5.858603092139067</v>
+        <v>5.858603092138998</v>
       </c>
       <c r="F2">
-        <v>45.09722248022489</v>
+        <v>45.09722248022509</v>
       </c>
       <c r="G2">
-        <v>2.143452528291897</v>
+        <v>2.143452528292159</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.858074514470489</v>
+        <v>5.858074514470388</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.761563970510282</v>
+        <v>6.761563970510301</v>
       </c>
       <c r="M2">
-        <v>15.83215187173524</v>
+        <v>15.83215187173531</v>
       </c>
       <c r="N2">
-        <v>16.20906051801517</v>
+        <v>16.20906051801523</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.47234346633109</v>
+        <v>25.47234346633113</v>
       </c>
       <c r="C3">
-        <v>14.09695108206793</v>
+        <v>14.09695108206791</v>
       </c>
       <c r="D3">
-        <v>2.856191207235163</v>
+        <v>2.856191207235233</v>
       </c>
       <c r="E3">
-        <v>5.788893945404663</v>
+        <v>5.788893945404601</v>
       </c>
       <c r="F3">
-        <v>43.9211712330515</v>
+        <v>43.92117123305162</v>
       </c>
       <c r="G3">
-        <v>2.155903067240263</v>
+        <v>2.155903067240124</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.890441599852143</v>
+        <v>5.890441599852242</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.705880690232909</v>
+        <v>6.7058806902329</v>
       </c>
       <c r="M3">
-        <v>15.30336503371304</v>
+        <v>15.30336503371308</v>
       </c>
       <c r="N3">
-        <v>16.41040889525226</v>
+        <v>16.41040889525232</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.56479449578105</v>
+        <v>24.56479449578094</v>
       </c>
       <c r="C4">
-        <v>13.38902538682147</v>
+        <v>13.38902538682163</v>
       </c>
       <c r="D4">
-        <v>2.81597652184468</v>
+        <v>2.815976521844636</v>
       </c>
       <c r="E4">
         <v>5.746268629551077</v>
       </c>
       <c r="F4">
-        <v>43.22630151066829</v>
+        <v>43.22630151066791</v>
       </c>
       <c r="G4">
-        <v>2.16371360798968</v>
+        <v>2.163713607989282</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.910762669453608</v>
+        <v>5.910762669453541</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.675002223429854</v>
+        <v>6.675002223429698</v>
       </c>
       <c r="M4">
-        <v>14.98215753152828</v>
+        <v>14.98215753152813</v>
       </c>
       <c r="N4">
-        <v>16.5385655584458</v>
+        <v>16.53856555844568</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.1908519242522</v>
+        <v>24.19085192425221</v>
       </c>
       <c r="C5">
-        <v>13.09242601571518</v>
+        <v>13.09242601571512</v>
       </c>
       <c r="D5">
-        <v>2.800433983207423</v>
+        <v>2.800433983207307</v>
       </c>
       <c r="E5">
-        <v>5.728920703715312</v>
+        <v>5.72892070371538</v>
       </c>
       <c r="F5">
-        <v>42.9499482438667</v>
+        <v>42.94994824386687</v>
       </c>
       <c r="G5">
-        <v>2.1669414728059</v>
+        <v>2.166941472805768</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.919162258402658</v>
+        <v>5.919162258402657</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.663233876843383</v>
+        <v>6.663233876843436</v>
       </c>
       <c r="M5">
-        <v>14.85224855308108</v>
+        <v>14.85224855308111</v>
       </c>
       <c r="N5">
-        <v>16.59191116368157</v>
+        <v>16.59191116368164</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.12852266351103</v>
+        <v>24.12852266351116</v>
       </c>
       <c r="C6">
-        <v>13.04268271220452</v>
+        <v>13.04268271220447</v>
       </c>
       <c r="D6">
-        <v>2.797902821767374</v>
+        <v>2.797902821767368</v>
       </c>
       <c r="E6">
-        <v>5.726040832247099</v>
+        <v>5.726040832247033</v>
       </c>
       <c r="F6">
-        <v>42.90447048928124</v>
+        <v>42.90447048928164</v>
       </c>
       <c r="G6">
-        <v>2.167480266922822</v>
+        <v>2.167480266922959</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.920564334931689</v>
+        <v>5.92056433493162</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.66132845374508</v>
+        <v>6.661328453745069</v>
       </c>
       <c r="M6">
-        <v>14.8307403724976</v>
+        <v>14.83074037249771</v>
       </c>
       <c r="N6">
-        <v>16.60083640136176</v>
+        <v>16.60083640136187</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.55976749339159</v>
+        <v>24.55976749339155</v>
       </c>
       <c r="C7">
-        <v>13.38505834231923</v>
+        <v>13.38505834231924</v>
       </c>
       <c r="D7">
-        <v>2.815763549885019</v>
+        <v>2.815763549885111</v>
       </c>
       <c r="E7">
-        <v>5.746034606942467</v>
+        <v>5.746034606942334</v>
       </c>
       <c r="F7">
-        <v>43.22254697492058</v>
+        <v>43.22254697492043</v>
       </c>
       <c r="G7">
-        <v>2.163756953708088</v>
+        <v>2.163756953708219</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.910875461398994</v>
+        <v>5.910875461398992</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.674840235244864</v>
+        <v>6.674840235244766</v>
       </c>
       <c r="M7">
-        <v>14.98040138278658</v>
+        <v>14.98040138278652</v>
       </c>
       <c r="N7">
-        <v>16.53928047888436</v>
+        <v>16.5392804788843</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.42574700692372</v>
+        <v>26.42574700692373</v>
       </c>
       <c r="C8">
-        <v>14.82497414266372</v>
+        <v>14.82497414266379</v>
       </c>
       <c r="D8">
-        <v>2.902126727903947</v>
+        <v>2.902126727903939</v>
       </c>
       <c r="E8">
-        <v>5.834516714682833</v>
+        <v>5.834516714682769</v>
       </c>
       <c r="F8">
-        <v>44.68604313952449</v>
+        <v>44.68604313952444</v>
       </c>
       <c r="G8">
-        <v>2.147713125252621</v>
+        <v>2.14771312525275</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.869145580357553</v>
+        <v>5.869145580357485</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.741666281007522</v>
+        <v>6.741666281007549</v>
       </c>
       <c r="M8">
-        <v>15.64916909326342</v>
+        <v>15.6491690932634</v>
       </c>
       <c r="N8">
-        <v>16.27753364715293</v>
+        <v>16.27753364715291</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.93437531980562</v>
+        <v>29.93437531980561</v>
       </c>
       <c r="C9">
-        <v>17.40304507889004</v>
+        <v>17.40304507889013</v>
       </c>
       <c r="D9">
-        <v>3.282102817833806</v>
+        <v>3.282102817833874</v>
       </c>
       <c r="E9">
-        <v>6.010567258942118</v>
+        <v>6.010567258942117</v>
       </c>
       <c r="F9">
-        <v>47.77475391197975</v>
+        <v>47.77475391197969</v>
       </c>
       <c r="G9">
-        <v>2.117402024713926</v>
+        <v>2.117402024713788</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.790565535825295</v>
+        <v>5.790565535825262</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.89982485989377</v>
+        <v>6.899824859893757</v>
       </c>
       <c r="M9">
-        <v>16.98413766292738</v>
+        <v>16.98413766292734</v>
       </c>
       <c r="N9">
         <v>15.80121694621142</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.41364091612402</v>
+        <v>32.41364091612397</v>
       </c>
       <c r="C10">
-        <v>19.15831322429986</v>
+        <v>19.15831322429974</v>
       </c>
       <c r="D10">
-        <v>3.621928349453746</v>
+        <v>3.621928349453733</v>
       </c>
       <c r="E10">
-        <v>6.143299509041086</v>
+        <v>6.143299509041024</v>
       </c>
       <c r="F10">
-        <v>50.18418082843593</v>
+        <v>50.18418082843592</v>
       </c>
       <c r="G10">
-        <v>2.095574753919952</v>
+        <v>2.09557475392036</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.734354328499873</v>
+        <v>5.734354328499839</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.033819978767742</v>
+        <v>7.033819978767752</v>
       </c>
       <c r="M10">
-        <v>17.97567703303159</v>
+        <v>17.97567703303158</v>
       </c>
       <c r="N10">
-        <v>15.47570957290865</v>
+        <v>15.47570957290864</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.52059289927594</v>
+        <v>33.52059289927595</v>
       </c>
       <c r="C11">
-        <v>19.92960458414105</v>
+        <v>19.92960458414112</v>
       </c>
       <c r="D11">
-        <v>3.773951794939286</v>
+        <v>3.773951794939465</v>
       </c>
       <c r="E11">
-        <v>6.204915306495629</v>
+        <v>6.204915306495699</v>
       </c>
       <c r="F11">
-        <v>51.31336281118067</v>
+        <v>51.31336281118071</v>
       </c>
       <c r="G11">
-        <v>2.085673655853697</v>
+        <v>2.085673655853705</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.708996364230883</v>
+        <v>5.708996364230786</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.098961910529843</v>
+        <v>7.098961910529805</v>
       </c>
       <c r="M11">
-        <v>18.42891848547265</v>
+        <v>18.42891848547262</v>
       </c>
       <c r="N11">
-        <v>15.33353150845013</v>
+        <v>15.3335315084502</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.93692268910437</v>
+        <v>33.93692268910439</v>
       </c>
       <c r="C12">
-        <v>20.21804891791738</v>
+        <v>20.21804891791749</v>
       </c>
       <c r="D12">
-        <v>3.831243275566554</v>
+        <v>3.83124327556661</v>
       </c>
       <c r="E12">
-        <v>6.228474943221203</v>
+        <v>6.22847494322127</v>
       </c>
       <c r="F12">
-        <v>51.74604120609762</v>
+        <v>51.7460412060975</v>
       </c>
       <c r="G12">
-        <v>2.081921888878015</v>
+        <v>2.08192188887815</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.699413581267238</v>
+        <v>5.699413581267239</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.124262373872803</v>
+        <v>7.124262373872781</v>
       </c>
       <c r="M12">
-        <v>18.60089464983862</v>
+        <v>18.60089464983859</v>
       </c>
       <c r="N12">
-        <v>15.28060710797828</v>
+        <v>15.28060710797821</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.8473818596391</v>
+        <v>33.84738185963908</v>
       </c>
       <c r="C13">
         <v>20.15608362533808</v>
       </c>
       <c r="D13">
-        <v>3.818915204453076</v>
+        <v>3.818915204453153</v>
       </c>
       <c r="E13">
-        <v>6.223389977786482</v>
+        <v>6.223389977786615</v>
       </c>
       <c r="F13">
-        <v>51.6526239440026</v>
+        <v>51.65262394400264</v>
       </c>
       <c r="G13">
-        <v>2.082730120867427</v>
+        <v>2.082730120867822</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.701476715021701</v>
+        <v>5.701476715021768</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.118784790823018</v>
+        <v>7.118784790823034</v>
       </c>
       <c r="M13">
-        <v>18.56384033412685</v>
+        <v>18.56384033412687</v>
       </c>
       <c r="N13">
-        <v>15.29196337111177</v>
+        <v>15.29196337111188</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.55490047857308</v>
+        <v>33.55490047857303</v>
       </c>
       <c r="C14">
-        <v>19.95340599353049</v>
+        <v>19.95340599353041</v>
       </c>
       <c r="D14">
-        <v>3.778670161533526</v>
+        <v>3.778670161533546</v>
       </c>
       <c r="E14">
         <v>6.206848708239648</v>
       </c>
       <c r="F14">
-        <v>51.34885547453729</v>
+        <v>51.34885547453734</v>
       </c>
       <c r="G14">
-        <v>2.085365085086808</v>
+        <v>2.085365085086937</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.708207654533429</v>
+        <v>5.708207654533461</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.101030523640844</v>
+        <v>7.101030523640901</v>
       </c>
       <c r="M14">
-        <v>18.44305987410307</v>
+        <v>18.44305987410311</v>
       </c>
       <c r="N14">
-        <v>15.32915859897982</v>
+        <v>15.32915859897994</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.37538235914982</v>
+        <v>33.37538235914986</v>
       </c>
       <c r="C15">
-        <v>19.82879685844165</v>
+        <v>19.82879685844163</v>
       </c>
       <c r="D15">
-        <v>3.753985883243064</v>
+        <v>3.753985883242962</v>
       </c>
       <c r="E15">
-        <v>6.196747882960766</v>
+        <v>6.196747882960761</v>
       </c>
       <c r="F15">
-        <v>51.16346155950182</v>
+        <v>51.16346155950185</v>
       </c>
       <c r="G15">
-        <v>2.086978550883276</v>
+        <v>2.086978550882878</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.712332773320686</v>
+        <v>5.712332773320789</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.090238898560402</v>
+        <v>7.090238898560426</v>
       </c>
       <c r="M15">
         <v>18.36912463355188</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.34088982509332</v>
+        <v>32.34088982509336</v>
       </c>
       <c r="C16">
-        <v>19.1073836529168</v>
+        <v>19.10738365291684</v>
       </c>
       <c r="D16">
-        <v>3.611949227116152</v>
+        <v>3.611949227116297</v>
       </c>
       <c r="E16">
-        <v>6.139301671670853</v>
+        <v>6.139301671670857</v>
       </c>
       <c r="F16">
-        <v>50.11107754824942</v>
+        <v>50.11107754824943</v>
       </c>
       <c r="G16">
-        <v>2.096221847388866</v>
+        <v>2.096221847389005</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.73601491303072</v>
+        <v>5.736014913030616</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.029649557197241</v>
+        <v>7.02964955719724</v>
       </c>
       <c r="M16">
         <v>17.9461022140313</v>
       </c>
       <c r="N16">
-        <v>15.48512531722696</v>
+        <v>15.48512531722693</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.70099402607377</v>
+        <v>31.70099402607385</v>
       </c>
       <c r="C17">
-        <v>18.65804484937017</v>
+        <v>18.65804484937026</v>
       </c>
       <c r="D17">
-        <v>3.524218851240533</v>
+        <v>3.524218851240715</v>
       </c>
       <c r="E17">
-        <v>6.104409357343575</v>
+        <v>6.104409357343776</v>
       </c>
       <c r="F17">
         <v>49.47415261668318</v>
       </c>
       <c r="G17">
-        <v>2.101895199169095</v>
+        <v>2.101895199169487</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.750590303668615</v>
+        <v>5.750590303668617</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.993572634435258</v>
+        <v>6.993572634435254</v>
       </c>
       <c r="M17">
-        <v>17.68715990356775</v>
+        <v>17.68715990356772</v>
       </c>
       <c r="N17">
-        <v>15.56830818182581</v>
+        <v>15.56830818182577</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.33096275457256</v>
+        <v>31.33096275457257</v>
       </c>
       <c r="C18">
-        <v>18.39701870570969</v>
+        <v>18.39701870570972</v>
       </c>
       <c r="D18">
-        <v>3.4735109541134</v>
+        <v>3.473510954113462</v>
       </c>
       <c r="E18">
-        <v>6.084453089617141</v>
+        <v>6.084453089617207</v>
       </c>
       <c r="F18">
-        <v>49.11090316434284</v>
+        <v>49.1109031643429</v>
       </c>
       <c r="G18">
-        <v>2.105161457191404</v>
+        <v>2.105161457191281</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.973214159663662</v>
+        <v>6.973214159663703</v>
       </c>
       <c r="M18">
-        <v>17.5384247922461</v>
+        <v>17.53842479224611</v>
       </c>
       <c r="N18">
-        <v>15.61670294640942</v>
+        <v>15.61670294640943</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>31.20533330125538</v>
       </c>
       <c r="C19">
-        <v>18.30818894461975</v>
+        <v>18.30818894461948</v>
       </c>
       <c r="D19">
-        <v>3.456296995443937</v>
+        <v>3.456296995443518</v>
       </c>
       <c r="E19">
-        <v>6.077714247836826</v>
+        <v>6.07771424783636</v>
       </c>
       <c r="F19">
-        <v>48.98843628069404</v>
+        <v>48.98843628069405</v>
       </c>
       <c r="G19">
-        <v>2.106268071241814</v>
+        <v>2.106268071241546</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.761843803277015</v>
+        <v>5.761843803276949</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.966387602565305</v>
+        <v>6.966387602565279</v>
       </c>
       <c r="M19">
-        <v>17.48810001857474</v>
+        <v>17.48810001857473</v>
       </c>
       <c r="N19">
-        <v>15.633181267628</v>
+        <v>15.63318126762812</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>31.76931615209876</v>
       </c>
       <c r="C20">
-        <v>18.70614266277911</v>
+        <v>18.70614266277924</v>
       </c>
       <c r="D20">
-        <v>3.53358291105205</v>
+        <v>3.533582911051988</v>
       </c>
       <c r="E20">
-        <v>6.108111689735376</v>
+        <v>6.108111689735312</v>
       </c>
       <c r="F20">
-        <v>49.54163227414256</v>
+        <v>49.54163227414247</v>
       </c>
       <c r="G20">
-        <v>2.101290984930142</v>
+        <v>2.101290984930005</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.749036655404819</v>
+        <v>5.749036655404851</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.997372305719425</v>
+        <v>6.997372305719386</v>
       </c>
       <c r="M20">
-        <v>17.71470379719591</v>
+        <v>17.7147037971959</v>
       </c>
       <c r="N20">
-        <v>15.55939584271979</v>
+        <v>15.55939584271975</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.64088497080608</v>
+        <v>33.64088497080603</v>
       </c>
       <c r="C21">
-        <v>20.01303329949294</v>
+        <v>20.01303329949284</v>
       </c>
       <c r="D21">
-        <v>3.790497803916479</v>
+        <v>3.790497803916308</v>
       </c>
       <c r="E21">
-        <v>6.211700681974175</v>
+        <v>6.211700681974103</v>
       </c>
       <c r="F21">
-        <v>51.43793865418691</v>
+        <v>51.43793865418687</v>
       </c>
       <c r="G21">
-        <v>2.084591254750257</v>
+        <v>2.084591254749994</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.706230172265896</v>
+        <v>5.706230172265927</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.106227945153313</v>
+        <v>7.106227945153353</v>
       </c>
       <c r="M21">
-        <v>18.47852626914481</v>
+        <v>18.47852626914483</v>
       </c>
       <c r="N21">
-        <v>15.31820800113147</v>
+        <v>15.31820800113154</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.84759835982143</v>
+        <v>34.84759835982145</v>
       </c>
       <c r="C22">
-        <v>20.84618399220876</v>
+        <v>20.84618399220898</v>
       </c>
       <c r="D22">
-        <v>3.956848468105997</v>
+        <v>3.956848468106222</v>
       </c>
       <c r="E22">
-        <v>6.280754898230103</v>
+        <v>6.280754898230231</v>
       </c>
       <c r="F22">
-        <v>52.70713297225057</v>
+        <v>52.70713297225056</v>
       </c>
       <c r="G22">
-        <v>2.073659094774214</v>
+        <v>2.073659094774346</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.678362606931844</v>
+        <v>5.678362606931745</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.181076788583278</v>
+        <v>7.181076788583265</v>
       </c>
       <c r="M22">
-        <v>18.97977365882652</v>
+        <v>18.9797736588265</v>
       </c>
       <c r="N22">
         <v>15.1659564461572</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.20498341020941</v>
+        <v>34.20498341020931</v>
       </c>
       <c r="C23">
-        <v>20.40333052225507</v>
+        <v>20.40333052225502</v>
       </c>
       <c r="D23">
-        <v>3.868172210895922</v>
+        <v>3.868172210895968</v>
       </c>
       <c r="E23">
-        <v>6.243756985857477</v>
+        <v>6.243756985857807</v>
       </c>
       <c r="F23">
-        <v>52.02687487570044</v>
+        <v>52.02687487570036</v>
       </c>
       <c r="G23">
-        <v>2.079497833019113</v>
+        <v>2.079497833019375</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.693230031526298</v>
+        <v>5.693230031526463</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.140778075023713</v>
+        <v>7.140778075023846</v>
       </c>
       <c r="M23">
-        <v>18.71204100002893</v>
+        <v>18.71204100002896</v>
       </c>
       <c r="N23">
-        <v>15.24669726942597</v>
+        <v>15.24669726942615</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.73843441563693</v>
+        <v>31.7384344156369</v>
       </c>
       <c r="C24">
-        <v>18.68440605731307</v>
+        <v>18.68440605731314</v>
       </c>
       <c r="D24">
-        <v>3.529350269041113</v>
+        <v>3.529350269041094</v>
       </c>
       <c r="E24">
-        <v>6.106437545594028</v>
+        <v>6.106437545594223</v>
       </c>
       <c r="F24">
-        <v>49.51111562616616</v>
+        <v>49.51111562616604</v>
       </c>
       <c r="G24">
-        <v>2.101564135467584</v>
+        <v>2.101564135467329</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.749738982529857</v>
+        <v>5.749738982529959</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.995653284772087</v>
+        <v>6.995653284772139</v>
       </c>
       <c r="M24">
         <v>17.70225078632843</v>
       </c>
       <c r="N24">
-        <v>15.56342333502675</v>
+        <v>15.56342333502668</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.00235410819199</v>
+        <v>29.00235410819202</v>
       </c>
       <c r="C25">
-        <v>16.73087476930286</v>
+        <v>16.73087476930291</v>
       </c>
       <c r="D25">
-        <v>3.154141906402091</v>
+        <v>3.154141906402148</v>
       </c>
       <c r="E25">
-        <v>5.962494971291778</v>
+        <v>5.962494971291647</v>
       </c>
       <c r="F25">
-        <v>46.91522170437552</v>
+        <v>46.91522170437567</v>
       </c>
       <c r="G25">
-        <v>2.125503709714828</v>
+        <v>2.125503709714831</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.811520183806469</v>
+        <v>5.811520183806334</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.854011799760321</v>
+        <v>6.854011799760223</v>
       </c>
       <c r="M25">
-        <v>16.6209440739254</v>
+        <v>16.62094407392539</v>
       </c>
       <c r="N25">
-        <v>15.92594782201543</v>
+        <v>15.92594782201552</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.92160230890738</v>
+        <v>20.51125228873128</v>
       </c>
       <c r="C2">
-        <v>15.19815020508855</v>
+        <v>13.02455645111911</v>
       </c>
       <c r="D2">
-        <v>2.92746845279914</v>
+        <v>3.738351634278288</v>
       </c>
       <c r="E2">
-        <v>5.858603092138998</v>
+        <v>6.881514329859242</v>
       </c>
       <c r="F2">
-        <v>45.09722248022509</v>
+        <v>28.2194882302191</v>
       </c>
       <c r="G2">
-        <v>2.143452528292159</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>37.23182960979645</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.334588557193242</v>
       </c>
       <c r="J2">
-        <v>5.858074514470388</v>
+        <v>12.18618956271709</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>18.77331870673386</v>
       </c>
       <c r="L2">
-        <v>6.761563970510301</v>
+        <v>5.894680531739158</v>
       </c>
       <c r="M2">
-        <v>15.83215187173531</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>16.20906051801523</v>
+        <v>6.922617154081509</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>13.11321548127549</v>
+      </c>
+      <c r="P2">
+        <v>13.25422210764687</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.47234346633113</v>
+        <v>19.24655181528919</v>
       </c>
       <c r="C3">
-        <v>14.09695108206791</v>
+        <v>12.18115496414794</v>
       </c>
       <c r="D3">
-        <v>2.856191207235233</v>
+        <v>3.724748680906336</v>
       </c>
       <c r="E3">
-        <v>5.788893945404601</v>
+        <v>6.906859595104943</v>
       </c>
       <c r="F3">
-        <v>43.92117123305162</v>
+        <v>27.68775957164358</v>
       </c>
       <c r="G3">
-        <v>2.155903067240124</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>36.19609996400744</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.569920883951738</v>
       </c>
       <c r="J3">
-        <v>5.890441599852242</v>
+        <v>12.0953714849076</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.72073349853731</v>
       </c>
       <c r="L3">
-        <v>6.7058806902329</v>
+        <v>5.913060537740076</v>
       </c>
       <c r="M3">
-        <v>15.30336503371308</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>16.41040889525232</v>
+        <v>6.839186636362947</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.58885711738525</v>
+      </c>
+      <c r="P3">
+        <v>13.43493892011274</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.56479449578094</v>
+        <v>18.42796288470945</v>
       </c>
       <c r="C4">
-        <v>13.38902538682163</v>
+        <v>11.63735182817616</v>
       </c>
       <c r="D4">
-        <v>2.815976521844636</v>
+        <v>3.717588745713123</v>
       </c>
       <c r="E4">
-        <v>5.746268629551077</v>
+        <v>6.923292651900331</v>
       </c>
       <c r="F4">
-        <v>43.22630151066791</v>
+        <v>27.37118947621917</v>
       </c>
       <c r="G4">
-        <v>2.163713607989282</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>35.56678622165455</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.720017317381862</v>
       </c>
       <c r="J4">
-        <v>5.910762669453541</v>
+        <v>12.0447485210003</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>18.6959525644101</v>
       </c>
       <c r="L4">
-        <v>6.675002223429698</v>
+        <v>5.92470313763129</v>
       </c>
       <c r="M4">
-        <v>14.98215753152813</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>16.53856555844568</v>
+        <v>6.791234439652849</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>12.25912260796637</v>
+      </c>
+      <c r="P4">
+        <v>13.54800116853378</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.19085192425221</v>
+        <v>18.07793064965249</v>
       </c>
       <c r="C5">
-        <v>13.09242601571512</v>
+        <v>11.41524239397488</v>
       </c>
       <c r="D5">
-        <v>2.800433983207307</v>
+        <v>3.715685789277873</v>
       </c>
       <c r="E5">
-        <v>5.72892070371538</v>
+        <v>6.9301287974464</v>
       </c>
       <c r="F5">
-        <v>42.94994824386687</v>
+        <v>27.23536064852998</v>
       </c>
       <c r="G5">
-        <v>2.166941472805768</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>35.29505631788018</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.785301871440421</v>
       </c>
       <c r="J5">
-        <v>5.919162258402657</v>
+        <v>12.02221746257581</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>18.68095631249134</v>
       </c>
       <c r="L5">
-        <v>6.663233876843436</v>
+        <v>5.929488457429817</v>
       </c>
       <c r="M5">
-        <v>14.85224855308111</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>16.59191116368164</v>
+        <v>6.773749684282851</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.12186325936861</v>
+      </c>
+      <c r="P5">
+        <v>13.59441345101271</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.12852266351116</v>
+        <v>18.01182740653815</v>
       </c>
       <c r="C6">
-        <v>13.04268271220447</v>
+        <v>11.38535322326002</v>
       </c>
       <c r="D6">
-        <v>2.797902821767368</v>
+        <v>3.716267954127624</v>
       </c>
       <c r="E6">
-        <v>5.726040832247033</v>
+        <v>6.931182311819531</v>
       </c>
       <c r="F6">
-        <v>42.90447048928164</v>
+        <v>27.20147727678784</v>
       </c>
       <c r="G6">
-        <v>2.167480266922959</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>35.22899590144931</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.799666654541955</v>
       </c>
       <c r="J6">
-        <v>5.92056433493162</v>
+        <v>12.01467510641242</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>18.67035344948753</v>
       </c>
       <c r="L6">
-        <v>6.661328453745069</v>
+        <v>5.930228831505915</v>
       </c>
       <c r="M6">
-        <v>14.83074037249771</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>16.60083640136187</v>
+        <v>6.772399096097506</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.09759778030443</v>
+      </c>
+      <c r="P6">
+        <v>13.60190722069927</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.55976749339155</v>
+        <v>18.40362534127476</v>
       </c>
       <c r="C7">
-        <v>13.38505834231924</v>
+        <v>11.65408378235996</v>
       </c>
       <c r="D7">
-        <v>2.815763549885111</v>
+        <v>3.719952168322962</v>
       </c>
       <c r="E7">
-        <v>5.746034606942334</v>
+        <v>6.92313019849614</v>
       </c>
       <c r="F7">
-        <v>43.22254697492043</v>
+        <v>27.33815304222689</v>
       </c>
       <c r="G7">
-        <v>2.163756953708219</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>35.5060676071633</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.730035166616816</v>
       </c>
       <c r="J7">
-        <v>5.910875461398992</v>
+        <v>12.0338769251752</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>18.67331161558357</v>
       </c>
       <c r="L7">
-        <v>6.674840235244766</v>
+        <v>5.924615264192683</v>
       </c>
       <c r="M7">
-        <v>14.98040138278652</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>16.5392804788843</v>
+        <v>6.795077167345864</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>12.25356429109366</v>
+      </c>
+      <c r="P7">
+        <v>13.5480198786755</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.42574700692373</v>
+        <v>20.05978456310678</v>
       </c>
       <c r="C8">
-        <v>14.82497414266379</v>
+        <v>12.76320135081218</v>
       </c>
       <c r="D8">
-        <v>2.902126727903939</v>
+        <v>3.73652249579425</v>
       </c>
       <c r="E8">
-        <v>5.834516714682769</v>
+        <v>6.889755003004967</v>
       </c>
       <c r="F8">
-        <v>44.68604313952444</v>
+        <v>27.99374599700372</v>
       </c>
       <c r="G8">
-        <v>2.14771312525275</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>36.80039330584211</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.4264178276232</v>
       </c>
       <c r="J8">
-        <v>5.869145580357485</v>
+        <v>12.13995406311606</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.72405664108145</v>
       </c>
       <c r="L8">
-        <v>6.741666281007549</v>
+        <v>5.900789354150493</v>
       </c>
       <c r="M8">
-        <v>15.6491690932634</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>16.27753364715291</v>
+        <v>6.898475634601748</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.92938570165636</v>
+      </c>
+      <c r="P8">
+        <v>13.31561220236884</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.93437531980561</v>
+        <v>23.00136669186491</v>
       </c>
       <c r="C9">
-        <v>17.40304507889013</v>
+        <v>14.70219941239887</v>
       </c>
       <c r="D9">
-        <v>3.282102817833874</v>
+        <v>3.774444927150076</v>
       </c>
       <c r="E9">
-        <v>6.010567258942117</v>
+        <v>6.83173615427513</v>
       </c>
       <c r="F9">
-        <v>47.77475391197969</v>
+        <v>29.40898439553544</v>
       </c>
       <c r="G9">
-        <v>2.117402024713788</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>39.47758022317376</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.859342616643906</v>
       </c>
       <c r="J9">
-        <v>5.790565535825262</v>
+        <v>12.40849140681289</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.92585016583343</v>
       </c>
       <c r="L9">
-        <v>6.899824859893757</v>
+        <v>5.85707277987538</v>
       </c>
       <c r="M9">
-        <v>16.98413766292734</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>15.80121694621142</v>
+        <v>7.11978429688839</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.19222194299986</v>
+      </c>
+      <c r="P9">
+        <v>12.87626724054742</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.41364091612397</v>
+        <v>24.94544656941403</v>
       </c>
       <c r="C10">
-        <v>19.15831322429974</v>
+        <v>16.0122435965042</v>
       </c>
       <c r="D10">
-        <v>3.621928349453733</v>
+        <v>3.809508921348024</v>
       </c>
       <c r="E10">
-        <v>6.143299509041024</v>
+        <v>6.793439047228386</v>
       </c>
       <c r="F10">
-        <v>50.18418082843592</v>
+        <v>30.47594836033656</v>
       </c>
       <c r="G10">
-        <v>2.09557475392036</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>41.43031323944223</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.496936624643519</v>
       </c>
       <c r="J10">
-        <v>5.734354328499839</v>
+        <v>12.6276428225459</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>19.10510835355415</v>
       </c>
       <c r="L10">
-        <v>7.033819978767752</v>
+        <v>5.826630472976877</v>
       </c>
       <c r="M10">
-        <v>17.97567703303158</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>15.47570957290864</v>
+        <v>7.299451799295922</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>15.06845999414408</v>
+      </c>
+      <c r="P10">
+        <v>12.56205787280016</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.52059289927595</v>
+        <v>25.76060850153918</v>
       </c>
       <c r="C11">
-        <v>19.92960458414112</v>
+        <v>16.60527908540724</v>
       </c>
       <c r="D11">
-        <v>3.773951794939465</v>
+        <v>3.830484200961052</v>
       </c>
       <c r="E11">
-        <v>6.204915306495699</v>
+        <v>6.776691899252811</v>
       </c>
       <c r="F11">
-        <v>51.31336281118071</v>
+        <v>30.9243534665048</v>
       </c>
       <c r="G11">
-        <v>2.085673655853705</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>42.24002841168883</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.67307932038272</v>
       </c>
       <c r="J11">
-        <v>5.708996364230786</v>
+        <v>12.71721087167388</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>19.16118510242291</v>
       </c>
       <c r="L11">
-        <v>7.098961910529805</v>
+        <v>5.81311650053828</v>
       </c>
       <c r="M11">
-        <v>18.42891848547262</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>15.3335315084502</v>
+        <v>7.390404606729298</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>15.44981909283277</v>
+      </c>
+      <c r="P11">
+        <v>12.42125943331804</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.93692268910439</v>
+        <v>26.07587045464913</v>
       </c>
       <c r="C12">
-        <v>20.21804891791749</v>
+        <v>16.81337651661113</v>
       </c>
       <c r="D12">
-        <v>3.83124327556661</v>
+        <v>3.836665876495673</v>
       </c>
       <c r="E12">
-        <v>6.22847494322127</v>
+        <v>6.770679161713936</v>
       </c>
       <c r="F12">
-        <v>51.7460412060975</v>
+        <v>31.11974265832466</v>
       </c>
       <c r="G12">
-        <v>2.08192188887815</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>42.58944134116526</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.736287176706</v>
       </c>
       <c r="J12">
-        <v>5.699413581267239</v>
+        <v>12.7607653592941</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>19.20286526685509</v>
       </c>
       <c r="L12">
-        <v>7.124262373872781</v>
+        <v>5.808081812292233</v>
       </c>
       <c r="M12">
-        <v>18.60089464983859</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>15.28060710797821</v>
+        <v>7.422029607470157</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>15.59521049467182</v>
+      </c>
+      <c r="P12">
+        <v>12.36795472359945</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.84738185963908</v>
+        <v>26.0108285551189</v>
       </c>
       <c r="C13">
-        <v>20.15608362533808</v>
+        <v>16.76622643451713</v>
       </c>
       <c r="D13">
-        <v>3.818915204453153</v>
+        <v>3.834932967490452</v>
       </c>
       <c r="E13">
-        <v>6.223389977786615</v>
+        <v>6.772003060399415</v>
       </c>
       <c r="F13">
-        <v>51.65262394400264</v>
+        <v>31.08246419819507</v>
       </c>
       <c r="G13">
-        <v>2.082730120867822</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>42.52266743027469</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.722042351181614</v>
       </c>
       <c r="J13">
-        <v>5.701476715021768</v>
+        <v>12.75308709186867</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>19.19761201805364</v>
       </c>
       <c r="L13">
-        <v>7.118784790823034</v>
+        <v>5.809167892028739</v>
       </c>
       <c r="M13">
-        <v>18.56384033412687</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>15.29196337111188</v>
+        <v>7.414550231970282</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.56453428389091</v>
+      </c>
+      <c r="P13">
+        <v>12.37937084865782</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.55490047857303</v>
+        <v>25.78777390350207</v>
       </c>
       <c r="C14">
-        <v>19.95340599353041</v>
+        <v>16.62140393457655</v>
       </c>
       <c r="D14">
-        <v>3.778670161533546</v>
+        <v>3.830821576516794</v>
       </c>
       <c r="E14">
-        <v>6.206848708239648</v>
+        <v>6.776209433044595</v>
       </c>
       <c r="F14">
-        <v>51.34885547453734</v>
+        <v>30.94247525019111</v>
       </c>
       <c r="G14">
-        <v>2.085365085086937</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>42.27239568513174</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.677997423436594</v>
       </c>
       <c r="J14">
-        <v>5.708207654533461</v>
+        <v>12.72151777476676</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>19.16619641320839</v>
       </c>
       <c r="L14">
-        <v>7.101030523640901</v>
+        <v>5.812703173723189</v>
       </c>
       <c r="M14">
-        <v>18.44305987410311</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>15.32915859897994</v>
+        <v>7.392721021926421</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>15.46205402888627</v>
+      </c>
+      <c r="P14">
+        <v>12.416847960879</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.37538235914986</v>
+        <v>25.64517063334553</v>
       </c>
       <c r="C15">
-        <v>19.82879685844163</v>
+        <v>16.53721365983453</v>
       </c>
       <c r="D15">
-        <v>3.753985883242962</v>
+        <v>3.829106257728541</v>
       </c>
       <c r="E15">
-        <v>6.196747882960761</v>
+        <v>6.778734605296402</v>
       </c>
       <c r="F15">
-        <v>51.16346155950185</v>
+        <v>30.84724328707811</v>
       </c>
       <c r="G15">
-        <v>2.086978550882878</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>42.10222074626962</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.65241592579003</v>
       </c>
       <c r="J15">
-        <v>5.712332773320789</v>
+        <v>12.69885287107752</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>19.13966631011941</v>
       </c>
       <c r="L15">
-        <v>7.090238898560426</v>
+        <v>5.814865714102496</v>
       </c>
       <c r="M15">
-        <v>18.36912463355188</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>15.35206322267127</v>
+        <v>7.380693844538337</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>15.39794072794048</v>
+      </c>
+      <c r="P15">
+        <v>12.43992683101668</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.34088982509336</v>
+        <v>24.8471491226743</v>
       </c>
       <c r="C16">
-        <v>19.10738365291684</v>
+        <v>16.01605245735982</v>
       </c>
       <c r="D16">
-        <v>3.611949227116297</v>
+        <v>3.814734531634361</v>
       </c>
       <c r="E16">
-        <v>6.139301671670857</v>
+        <v>6.793948713630462</v>
       </c>
       <c r="F16">
-        <v>50.11107754824943</v>
+        <v>30.36477301423585</v>
       </c>
       <c r="G16">
-        <v>2.096221847389005</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>41.23328749410537</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.516988110201314</v>
       </c>
       <c r="J16">
-        <v>5.736014913030616</v>
+        <v>12.59269807905656</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>19.03831999223943</v>
       </c>
       <c r="L16">
-        <v>7.02964955719724</v>
+        <v>5.827413458448382</v>
       </c>
       <c r="M16">
-        <v>17.9461022140313</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>15.48512531722693</v>
+        <v>7.30450184013198</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>15.03388395474756</v>
+      </c>
+      <c r="P16">
+        <v>12.57189220029826</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.70099402607385</v>
+        <v>24.34589596356259</v>
       </c>
       <c r="C17">
-        <v>18.65804484937026</v>
+        <v>15.68979371877903</v>
       </c>
       <c r="D17">
-        <v>3.524218851240715</v>
+        <v>3.80625175116438</v>
       </c>
       <c r="E17">
-        <v>6.104409357343776</v>
+        <v>6.80354265383525</v>
       </c>
       <c r="F17">
-        <v>49.47415261668318</v>
+        <v>30.07100494178101</v>
       </c>
       <c r="G17">
-        <v>2.101895199169487</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>40.70028221209028</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.619941423420755</v>
       </c>
       <c r="J17">
-        <v>5.750590303668617</v>
+        <v>12.52925529453364</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.97897902781789</v>
       </c>
       <c r="L17">
-        <v>6.993572634435254</v>
+        <v>5.835199980490445</v>
       </c>
       <c r="M17">
-        <v>17.68715990356772</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>15.56830818182577</v>
+        <v>7.258541037636854</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>14.80739509992043</v>
+      </c>
+      <c r="P17">
+        <v>12.65320009613168</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.33096275457257</v>
+        <v>24.06703413377388</v>
       </c>
       <c r="C18">
-        <v>18.39701870570972</v>
+        <v>15.48624516591927</v>
       </c>
       <c r="D18">
-        <v>3.473510954113462</v>
+        <v>3.799483503371331</v>
       </c>
       <c r="E18">
-        <v>6.084453089617207</v>
+        <v>6.809342258367082</v>
       </c>
       <c r="F18">
-        <v>49.1109031643429</v>
+        <v>29.92806924604332</v>
       </c>
       <c r="G18">
-        <v>2.105161457191281</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>40.43826631069712</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.669211445864663</v>
       </c>
       <c r="J18">
-        <v>5.758994434370714</v>
+        <v>12.50228700174182</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.96511327788717</v>
       </c>
       <c r="L18">
-        <v>6.973214159663703</v>
+        <v>5.839752036009167</v>
       </c>
       <c r="M18">
-        <v>17.53842479224611</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>15.61670294640943</v>
+        <v>7.229043654472163</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>14.67889313802389</v>
+      </c>
+      <c r="P18">
+        <v>12.69996924552633</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.20533330125538</v>
+        <v>23.96129913570896</v>
       </c>
       <c r="C19">
-        <v>18.30818894461948</v>
+        <v>15.42727520402046</v>
       </c>
       <c r="D19">
-        <v>3.456296995443518</v>
+        <v>3.798761924094255</v>
       </c>
       <c r="E19">
-        <v>6.07771424783636</v>
+        <v>6.811177978508397</v>
       </c>
       <c r="F19">
-        <v>48.98843628069405</v>
+        <v>29.86040860441107</v>
       </c>
       <c r="G19">
-        <v>2.106268071241546</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>40.31532062697677</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.694018066763975</v>
       </c>
       <c r="J19">
-        <v>5.761843803276949</v>
+        <v>12.48639032525923</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.94574936534945</v>
       </c>
       <c r="L19">
-        <v>6.966387602565279</v>
+        <v>5.841267939174404</v>
       </c>
       <c r="M19">
-        <v>17.48810001857473</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>15.63318126762812</v>
+        <v>7.221689344030232</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>14.63296069996078</v>
+      </c>
+      <c r="P19">
+        <v>12.71593399860729</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.76931615209876</v>
+        <v>24.40076672289893</v>
       </c>
       <c r="C20">
-        <v>18.70614266277924</v>
+        <v>15.72373067608608</v>
       </c>
       <c r="D20">
-        <v>3.533582911051988</v>
+        <v>3.806984737960542</v>
       </c>
       <c r="E20">
-        <v>6.108111689735312</v>
+        <v>6.802526124436195</v>
       </c>
       <c r="F20">
-        <v>49.54163227414247</v>
+        <v>30.10415716098451</v>
       </c>
       <c r="G20">
-        <v>2.101290984930005</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>40.76047859522065</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.608080976800949</v>
       </c>
       <c r="J20">
-        <v>5.749036655404851</v>
+        <v>12.53664287409378</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.98669781440488</v>
       </c>
       <c r="L20">
-        <v>6.997372305719386</v>
+        <v>5.834370585320592</v>
       </c>
       <c r="M20">
-        <v>17.7147037971959</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>15.55939584271975</v>
+        <v>7.263141798201627</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.83184879437583</v>
+      </c>
+      <c r="P20">
+        <v>12.64451776244141</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.64088497080603</v>
+        <v>25.83903038494162</v>
       </c>
       <c r="C21">
-        <v>20.01303329949284</v>
+        <v>16.678092185058</v>
       </c>
       <c r="D21">
-        <v>3.790497803916308</v>
+        <v>3.834230167373071</v>
       </c>
       <c r="E21">
-        <v>6.211700681974103</v>
+        <v>6.774769514902405</v>
       </c>
       <c r="F21">
-        <v>51.43793865418687</v>
+        <v>30.95630363931951</v>
       </c>
       <c r="G21">
-        <v>2.084591254749994</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>42.2982856746955</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.694957698339003</v>
       </c>
       <c r="J21">
-        <v>5.706230172265927</v>
+        <v>12.7209816993222</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.1541084127881</v>
       </c>
       <c r="L21">
-        <v>7.106227945153353</v>
+        <v>5.811639578110136</v>
       </c>
       <c r="M21">
-        <v>18.47852626914483</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>15.31820800113154</v>
+        <v>7.402766095570815</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.48908955930295</v>
+      </c>
+      <c r="P21">
+        <v>12.40614270652583</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.84759835982145</v>
+        <v>26.75913972626671</v>
       </c>
       <c r="C22">
-        <v>20.84618399220898</v>
+        <v>17.26280427762964</v>
       </c>
       <c r="D22">
-        <v>3.956848468106222</v>
+        <v>3.850342882571366</v>
       </c>
       <c r="E22">
-        <v>6.280754898230231</v>
+        <v>6.757753901870375</v>
       </c>
       <c r="F22">
-        <v>52.70713297225056</v>
+        <v>31.55476904312725</v>
       </c>
       <c r="G22">
-        <v>2.073659094774346</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>43.36326071021505</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.874396527492227</v>
       </c>
       <c r="J22">
-        <v>5.678362606931745</v>
+        <v>12.85945294815104</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.30006151100285</v>
       </c>
       <c r="L22">
-        <v>7.181076788583265</v>
+        <v>5.797103169514227</v>
       </c>
       <c r="M22">
-        <v>18.9797736588265</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>15.1659564461572</v>
+        <v>7.491907487339078</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.91196674894838</v>
+      </c>
+      <c r="P22">
+        <v>12.25100304330816</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.20498341020931</v>
+        <v>26.28879275609293</v>
       </c>
       <c r="C23">
-        <v>20.40333052225502</v>
+        <v>16.93588874800068</v>
       </c>
       <c r="D23">
-        <v>3.868172210895968</v>
+        <v>3.838990665177118</v>
       </c>
       <c r="E23">
-        <v>6.243756985857807</v>
+        <v>6.766994254591531</v>
       </c>
       <c r="F23">
-        <v>52.02687487570036</v>
+        <v>31.2674373858689</v>
       </c>
       <c r="G23">
-        <v>2.079497833019375</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>42.85199269195792</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.774470110182532</v>
       </c>
       <c r="J23">
-        <v>5.693230031526463</v>
+        <v>12.79679199529445</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.24687138961145</v>
       </c>
       <c r="L23">
-        <v>7.140778075023846</v>
+        <v>5.804860544159797</v>
       </c>
       <c r="M23">
-        <v>18.71204100002896</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>15.24669726942615</v>
+        <v>7.439729645680073</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.69099795395578</v>
+      </c>
+      <c r="P23">
+        <v>12.33332602013525</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.7384344156369</v>
+        <v>24.40474501785051</v>
       </c>
       <c r="C24">
-        <v>18.68440605731314</v>
+        <v>15.68023432884382</v>
       </c>
       <c r="D24">
-        <v>3.529350269041094</v>
+        <v>3.802417180992063</v>
       </c>
       <c r="E24">
-        <v>6.106437545594223</v>
+        <v>6.803378115147559</v>
       </c>
       <c r="F24">
-        <v>49.51111562616604</v>
+        <v>30.14220313012257</v>
       </c>
       <c r="G24">
-        <v>2.101564135467329</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>40.82670823994286</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.59198046174395</v>
       </c>
       <c r="J24">
-        <v>5.749738982529959</v>
+        <v>12.55211108791001</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.0238898632419</v>
       </c>
       <c r="L24">
-        <v>6.995653284772139</v>
+        <v>5.834825307338378</v>
       </c>
       <c r="M24">
-        <v>17.70225078632843</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>15.56342333502668</v>
+        <v>7.254001320816071</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.82688940283019</v>
+      </c>
+      <c r="P24">
+        <v>12.64812558273021</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.00235410819202</v>
+        <v>22.21209440584987</v>
       </c>
       <c r="C25">
-        <v>16.73087476930291</v>
+        <v>14.22900910433555</v>
       </c>
       <c r="D25">
-        <v>3.154141906402148</v>
+        <v>3.767308609467501</v>
       </c>
       <c r="E25">
-        <v>5.962494971291647</v>
+        <v>6.846263480572151</v>
       </c>
       <c r="F25">
-        <v>46.91522170437567</v>
+        <v>28.96520994499144</v>
       </c>
       <c r="G25">
-        <v>2.125503709714831</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>38.65535729908623</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.025783999477602</v>
       </c>
       <c r="J25">
-        <v>5.811520183806334</v>
+        <v>12.31261806851674</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.82421518180075</v>
       </c>
       <c r="L25">
-        <v>6.854011799760223</v>
+        <v>5.868464463960919</v>
       </c>
       <c r="M25">
-        <v>16.62094407392539</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>15.92594782201552</v>
+        <v>7.064256877603964</v>
       </c>
       <c r="O25">
+        <v>13.85267875062281</v>
+      </c>
+      <c r="P25">
+        <v>12.99340300628396</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.51125228873128</v>
+        <v>19.89739093472415</v>
       </c>
       <c r="C2">
-        <v>13.02455645111911</v>
+        <v>13.44818184202609</v>
       </c>
       <c r="D2">
-        <v>3.738351634278288</v>
+        <v>3.860003092900307</v>
       </c>
       <c r="E2">
-        <v>6.881514329859242</v>
+        <v>6.820117156112635</v>
       </c>
       <c r="F2">
-        <v>28.2194882302191</v>
+        <v>26.9641348361586</v>
       </c>
       <c r="G2">
-        <v>37.23182960979645</v>
+        <v>34.75917538778763</v>
       </c>
       <c r="I2">
-        <v>3.334588557193242</v>
+        <v>3.168721431129983</v>
       </c>
       <c r="J2">
-        <v>12.18618956271709</v>
+        <v>11.96926129631825</v>
       </c>
       <c r="K2">
-        <v>18.77331870673386</v>
+        <v>17.6882451763299</v>
       </c>
       <c r="L2">
-        <v>5.894680531739158</v>
+        <v>14.35932913904908</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.87815414531783</v>
       </c>
       <c r="N2">
-        <v>6.922617154081509</v>
+        <v>5.823949459410486</v>
       </c>
       <c r="O2">
-        <v>13.11321548127549</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.25422210764687</v>
+        <v>7.116247530805294</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.9409257261716</v>
+      </c>
+      <c r="R2">
+        <v>13.08808861599669</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.24655181528919</v>
+        <v>18.68066383201599</v>
       </c>
       <c r="C3">
-        <v>12.18115496414794</v>
+        <v>12.53339304041496</v>
       </c>
       <c r="D3">
-        <v>3.724748680906336</v>
+        <v>3.846003987887459</v>
       </c>
       <c r="E3">
-        <v>6.906859595104943</v>
+        <v>6.849054615142763</v>
       </c>
       <c r="F3">
-        <v>27.68775957164358</v>
+        <v>26.51059562629785</v>
       </c>
       <c r="G3">
-        <v>36.19609996400744</v>
+        <v>33.92182282551139</v>
       </c>
       <c r="I3">
-        <v>3.569920883951738</v>
+        <v>3.371781422165956</v>
       </c>
       <c r="J3">
-        <v>12.0953714849076</v>
+        <v>11.85333053861151</v>
       </c>
       <c r="K3">
-        <v>18.72073349853731</v>
+        <v>17.68887237883806</v>
       </c>
       <c r="L3">
-        <v>5.913060537740076</v>
+        <v>14.43774249093492</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.81282474018562</v>
       </c>
       <c r="N3">
-        <v>6.839186636362947</v>
+        <v>5.837789052827506</v>
       </c>
       <c r="O3">
-        <v>12.58885711738525</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.43493892011274</v>
+        <v>7.019333241386392</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.41692148441223</v>
+      </c>
+      <c r="R3">
+        <v>13.24368223133326</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.42796288470945</v>
+        <v>17.89075697302988</v>
       </c>
       <c r="C4">
-        <v>11.63735182817616</v>
+        <v>11.94249485770705</v>
       </c>
       <c r="D4">
-        <v>3.717588745713123</v>
+        <v>3.838952385806401</v>
       </c>
       <c r="E4">
-        <v>6.923292651900331</v>
+        <v>6.867778501726692</v>
       </c>
       <c r="F4">
-        <v>27.37118947621917</v>
+        <v>26.23954407389632</v>
       </c>
       <c r="G4">
-        <v>35.56678622165455</v>
+        <v>33.4179720801715</v>
       </c>
       <c r="I4">
-        <v>3.720017317381862</v>
+        <v>3.501727367483702</v>
       </c>
       <c r="J4">
-        <v>12.0447485210003</v>
+        <v>11.78327033933936</v>
       </c>
       <c r="K4">
-        <v>18.6959525644101</v>
+        <v>17.69447035462753</v>
       </c>
       <c r="L4">
-        <v>5.92470313763129</v>
+        <v>14.48442777779613</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.79583576040259</v>
       </c>
       <c r="N4">
-        <v>6.791234439652849</v>
+        <v>5.846657878044216</v>
       </c>
       <c r="O4">
-        <v>12.25912260796637</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.54800116853378</v>
+        <v>6.963155946787371</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>12.08622452191251</v>
+      </c>
+      <c r="R4">
+        <v>13.34172383098663</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.07793064965249</v>
+        <v>17.55224614399002</v>
       </c>
       <c r="C5">
-        <v>11.41524239397488</v>
+        <v>11.70044403540352</v>
       </c>
       <c r="D5">
-        <v>3.715685789277873</v>
+        <v>3.83722228667935</v>
       </c>
       <c r="E5">
-        <v>6.9301287974464</v>
+        <v>6.875588020445258</v>
       </c>
       <c r="F5">
-        <v>27.23536064852998</v>
+        <v>26.12182138061604</v>
       </c>
       <c r="G5">
-        <v>35.29505631788018</v>
+        <v>33.19857445716602</v>
       </c>
       <c r="I5">
-        <v>3.785301871440421</v>
+        <v>3.559133301650512</v>
       </c>
       <c r="J5">
-        <v>12.02221746257581</v>
+        <v>11.75183409849121</v>
       </c>
       <c r="K5">
-        <v>18.68095631249134</v>
+        <v>17.69160496087057</v>
       </c>
       <c r="L5">
-        <v>5.929488457429817</v>
+        <v>14.49731562834735</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.79075349764325</v>
       </c>
       <c r="N5">
-        <v>6.773749684282851</v>
+        <v>5.850342306847104</v>
       </c>
       <c r="O5">
-        <v>12.12186325936861</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.59441345101271</v>
+        <v>6.942322724739797</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.94827404147893</v>
+      </c>
+      <c r="R5">
+        <v>13.38231712785448</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.01182740653815</v>
+        <v>17.48813414490489</v>
       </c>
       <c r="C6">
-        <v>11.38535322326002</v>
+        <v>11.66728359428402</v>
       </c>
       <c r="D6">
-        <v>3.716267954127624</v>
+        <v>3.837887236039606</v>
       </c>
       <c r="E6">
-        <v>6.931182311819531</v>
+        <v>6.876826510115613</v>
       </c>
       <c r="F6">
-        <v>27.20147727678784</v>
+        <v>26.09116373097909</v>
       </c>
       <c r="G6">
-        <v>35.22899590144931</v>
+        <v>33.14175713206998</v>
       </c>
       <c r="I6">
-        <v>3.799666654541955</v>
+        <v>3.572744683634911</v>
       </c>
       <c r="J6">
-        <v>12.01467510641242</v>
+        <v>11.74275032216951</v>
       </c>
       <c r="K6">
-        <v>18.67035344948753</v>
+        <v>17.6833750935432</v>
       </c>
       <c r="L6">
-        <v>5.930228831505915</v>
+        <v>14.49239525320368</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.78544802985031</v>
       </c>
       <c r="N6">
-        <v>6.772399096097506</v>
+        <v>5.850932784387523</v>
       </c>
       <c r="O6">
-        <v>12.09759778030443</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.60190722069927</v>
+        <v>6.940395390419854</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.92387998169574</v>
+      </c>
+      <c r="R6">
+        <v>13.38910936110813</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.40362534127476</v>
+        <v>17.85841914400499</v>
       </c>
       <c r="C7">
-        <v>11.65408378235996</v>
+        <v>11.94507885331592</v>
       </c>
       <c r="D7">
-        <v>3.719952168322962</v>
+        <v>3.844366122077718</v>
       </c>
       <c r="E7">
-        <v>6.92313019849614</v>
+        <v>6.868057047726821</v>
       </c>
       <c r="F7">
-        <v>27.33815304222689</v>
+        <v>26.18830839767882</v>
       </c>
       <c r="G7">
-        <v>35.5060676071633</v>
+        <v>33.43435054773082</v>
       </c>
       <c r="I7">
-        <v>3.730035166616816</v>
+        <v>3.513949172055186</v>
       </c>
       <c r="J7">
-        <v>12.0338769251752</v>
+        <v>11.72290373324051</v>
       </c>
       <c r="K7">
-        <v>18.67331161558357</v>
+        <v>17.66360484462393</v>
       </c>
       <c r="L7">
-        <v>5.924615264192683</v>
+        <v>14.45730028358906</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.77629970084507</v>
       </c>
       <c r="N7">
-        <v>6.795077167345864</v>
+        <v>5.846557737324735</v>
       </c>
       <c r="O7">
-        <v>12.25356429109366</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.5480198786755</v>
+        <v>6.966440612494723</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>12.07726856740865</v>
+      </c>
+      <c r="R7">
+        <v>13.34254192830747</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.05978456310678</v>
+        <v>19.43702771485992</v>
       </c>
       <c r="C8">
-        <v>12.76320135081218</v>
+        <v>13.11989702807555</v>
       </c>
       <c r="D8">
-        <v>3.73652249579425</v>
+        <v>3.867873321999494</v>
       </c>
       <c r="E8">
-        <v>6.889755003004967</v>
+        <v>6.830865038321885</v>
       </c>
       <c r="F8">
-        <v>27.99374599700372</v>
+        <v>26.70458992058371</v>
       </c>
       <c r="G8">
-        <v>36.80039330584211</v>
+        <v>34.64002097516236</v>
       </c>
       <c r="I8">
-        <v>3.4264178276232</v>
+        <v>3.253999608251211</v>
       </c>
       <c r="J8">
-        <v>12.13995406311606</v>
+        <v>11.75420918228463</v>
       </c>
       <c r="K8">
-        <v>18.72405664108145</v>
+        <v>17.62819168485484</v>
       </c>
       <c r="L8">
-        <v>5.900789354150493</v>
+        <v>14.3371823994412</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.81002097313033</v>
       </c>
       <c r="N8">
-        <v>6.898475634601748</v>
+        <v>5.828336560724845</v>
       </c>
       <c r="O8">
-        <v>12.92938570165636</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>13.31561220236884</v>
+        <v>7.085823946182241</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.74663648326133</v>
+      </c>
+      <c r="R8">
+        <v>13.14276360632765</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.00136669186491</v>
+        <v>22.25239221031834</v>
       </c>
       <c r="C9">
-        <v>14.70219941239887</v>
+        <v>15.21338281345552</v>
       </c>
       <c r="D9">
-        <v>3.774444927150076</v>
+        <v>3.911125621296289</v>
       </c>
       <c r="E9">
-        <v>6.83173615427513</v>
+        <v>6.764532296175281</v>
       </c>
       <c r="F9">
-        <v>29.40898439553544</v>
+        <v>27.89743184257136</v>
       </c>
       <c r="G9">
-        <v>39.47758022317376</v>
+        <v>36.89596823336481</v>
       </c>
       <c r="I9">
-        <v>2.859342616643906</v>
+        <v>2.764752376798581</v>
       </c>
       <c r="J9">
-        <v>12.40849140681289</v>
+        <v>12.02184321059262</v>
       </c>
       <c r="K9">
-        <v>18.92585016583343</v>
+        <v>17.67484827070585</v>
       </c>
       <c r="L9">
-        <v>5.85707277987538</v>
+        <v>14.15180960654311</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.10906191854999</v>
       </c>
       <c r="N9">
-        <v>7.11978429688839</v>
+        <v>5.795901106328509</v>
       </c>
       <c r="O9">
-        <v>14.19222194299986</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.87626724054742</v>
+        <v>7.340315954742516</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.00025826992115</v>
+      </c>
+      <c r="R9">
+        <v>12.76920000160199</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.94544656941403</v>
+        <v>24.06484463552194</v>
       </c>
       <c r="C10">
-        <v>16.0122435965042</v>
+        <v>16.55915939798514</v>
       </c>
       <c r="D10">
-        <v>3.809508921348024</v>
+        <v>3.969003579219077</v>
       </c>
       <c r="E10">
-        <v>6.793439047228386</v>
+        <v>6.722670676700688</v>
       </c>
       <c r="F10">
-        <v>30.47594836033656</v>
+        <v>28.69030485731793</v>
       </c>
       <c r="G10">
-        <v>41.43031323944223</v>
+        <v>38.95377228010188</v>
       </c>
       <c r="I10">
-        <v>2.496936624643519</v>
+        <v>2.540236135137365</v>
       </c>
       <c r="J10">
-        <v>12.6276428225459</v>
+        <v>11.94995958380954</v>
       </c>
       <c r="K10">
-        <v>19.10510835355415</v>
+        <v>17.67562109994284</v>
       </c>
       <c r="L10">
-        <v>5.826630472976877</v>
+        <v>13.96242870399647</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.38887737159287</v>
       </c>
       <c r="N10">
-        <v>7.299451799295922</v>
+        <v>5.773507278203755</v>
       </c>
       <c r="O10">
-        <v>15.06845999414408</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.56205787280016</v>
+        <v>7.541028557872625</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.84759249244911</v>
+      </c>
+      <c r="R10">
+        <v>12.51081826763301</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.76060850153918</v>
+        <v>24.75652659347399</v>
       </c>
       <c r="C11">
-        <v>16.60527908540724</v>
+        <v>17.0607528085908</v>
       </c>
       <c r="D11">
-        <v>3.830484200961052</v>
+        <v>4.03245700171664</v>
       </c>
       <c r="E11">
-        <v>6.776691899252811</v>
+        <v>6.708756317916443</v>
       </c>
       <c r="F11">
-        <v>30.9243534665048</v>
+        <v>28.83658681772797</v>
       </c>
       <c r="G11">
-        <v>42.24002841168883</v>
+        <v>40.49468420705039</v>
       </c>
       <c r="I11">
-        <v>2.67307932038272</v>
+        <v>2.687528724565047</v>
       </c>
       <c r="J11">
-        <v>12.71721087167388</v>
+        <v>11.44580311956359</v>
       </c>
       <c r="K11">
-        <v>19.16118510242291</v>
+        <v>17.55605568553704</v>
       </c>
       <c r="L11">
-        <v>5.81311650053828</v>
+        <v>13.78546002973026</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>12.43530936788591</v>
       </c>
       <c r="N11">
-        <v>7.390404606729298</v>
+        <v>5.763180311560266</v>
       </c>
       <c r="O11">
-        <v>15.44981909283277</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.42125943331804</v>
+        <v>7.63607819339376</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.18558698254242</v>
+      </c>
+      <c r="R11">
+        <v>12.40625962850623</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.07587045464913</v>
+        <v>25.01740822025315</v>
       </c>
       <c r="C12">
-        <v>16.81337651661113</v>
+        <v>17.22209825227845</v>
       </c>
       <c r="D12">
-        <v>3.836665876495673</v>
+        <v>4.05895448701057</v>
       </c>
       <c r="E12">
-        <v>6.770679161713936</v>
+        <v>6.704580066924064</v>
       </c>
       <c r="F12">
-        <v>31.11974265832466</v>
+        <v>28.89478102156673</v>
       </c>
       <c r="G12">
-        <v>42.58944134116526</v>
+        <v>41.2029833360579</v>
       </c>
       <c r="I12">
-        <v>2.736287176706</v>
+        <v>2.738130110242892</v>
       </c>
       <c r="J12">
-        <v>12.7607653592941</v>
+        <v>11.21191197635133</v>
       </c>
       <c r="K12">
-        <v>19.20286526685509</v>
+        <v>17.5174760019476</v>
       </c>
       <c r="L12">
-        <v>5.808081812292233</v>
+        <v>13.72331862089608</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>12.4598919379882</v>
       </c>
       <c r="N12">
-        <v>7.422029607470157</v>
+        <v>5.759210089520379</v>
       </c>
       <c r="O12">
-        <v>15.59521049467182</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.36795472359945</v>
+        <v>7.668572050674414</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.31084463751089</v>
+      </c>
+      <c r="R12">
+        <v>12.36728765902995</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.0108285551189</v>
+        <v>24.96434144155134</v>
       </c>
       <c r="C13">
-        <v>16.76622643451713</v>
+        <v>17.18554070789139</v>
       </c>
       <c r="D13">
-        <v>3.834932967490452</v>
+        <v>4.052589239431489</v>
       </c>
       <c r="E13">
-        <v>6.772003060399415</v>
+        <v>6.705462277750864</v>
       </c>
       <c r="F13">
-        <v>31.08246419819507</v>
+        <v>28.88786094832702</v>
       </c>
       <c r="G13">
-        <v>42.52266743027469</v>
+        <v>41.05504013755109</v>
       </c>
       <c r="I13">
-        <v>2.722042351181614</v>
+        <v>2.726377060829356</v>
       </c>
       <c r="J13">
-        <v>12.75308709186867</v>
+        <v>11.26597351306537</v>
       </c>
       <c r="K13">
-        <v>19.19761201805364</v>
+        <v>17.52977747832837</v>
       </c>
       <c r="L13">
-        <v>5.809167892028739</v>
+        <v>13.73953073019393</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.45776765050437</v>
       </c>
       <c r="N13">
-        <v>7.414550231970282</v>
+        <v>5.760049385316162</v>
       </c>
       <c r="O13">
-        <v>15.56453428389091</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.37937084865782</v>
+        <v>7.660951892838137</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.28465675983751</v>
+      </c>
+      <c r="R13">
+        <v>12.37531511813448</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.78777390350207</v>
+        <v>24.77933854857143</v>
       </c>
       <c r="C14">
-        <v>16.62140393457655</v>
+        <v>17.0732674405728</v>
       </c>
       <c r="D14">
-        <v>3.830821576516794</v>
+        <v>4.034353294441991</v>
       </c>
       <c r="E14">
-        <v>6.776209433044595</v>
+        <v>6.70840447369379</v>
       </c>
       <c r="F14">
-        <v>30.94247525019111</v>
+        <v>28.84379155796516</v>
       </c>
       <c r="G14">
-        <v>42.27239568513174</v>
+        <v>40.5548352018595</v>
       </c>
       <c r="I14">
-        <v>2.677997423436594</v>
+        <v>2.691314721341202</v>
       </c>
       <c r="J14">
-        <v>12.72151777476676</v>
+        <v>11.42820606120309</v>
       </c>
       <c r="K14">
-        <v>19.16619641320839</v>
+        <v>17.55459458507135</v>
       </c>
       <c r="L14">
-        <v>5.812703173723189</v>
+        <v>13.78156737581225</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.4386857613208</v>
       </c>
       <c r="N14">
-        <v>7.392721021926421</v>
+        <v>5.762847168780524</v>
       </c>
       <c r="O14">
-        <v>15.46205402888627</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.416847960879</v>
+        <v>7.638486448761152</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>15.1962343765958</v>
+      </c>
+      <c r="R14">
+        <v>12.40290094589383</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.64517063334553</v>
+        <v>24.65921109133088</v>
       </c>
       <c r="C15">
-        <v>16.53721365983453</v>
+        <v>17.00747412218565</v>
       </c>
       <c r="D15">
-        <v>3.829106257728541</v>
+        <v>4.024670765171607</v>
       </c>
       <c r="E15">
-        <v>6.778734605296402</v>
+        <v>6.710282494068517</v>
       </c>
       <c r="F15">
-        <v>30.84724328707811</v>
+        <v>28.80476979726356</v>
       </c>
       <c r="G15">
-        <v>42.10222074626962</v>
+        <v>40.24275764568201</v>
       </c>
       <c r="I15">
-        <v>2.65241592579003</v>
+        <v>2.671666619623302</v>
       </c>
       <c r="J15">
-        <v>12.69885287107752</v>
+        <v>11.51800365879813</v>
       </c>
       <c r="K15">
-        <v>19.13966631011941</v>
+        <v>17.56142513804223</v>
       </c>
       <c r="L15">
-        <v>5.814865714102496</v>
+        <v>13.8013290389685</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.42045299014189</v>
       </c>
       <c r="N15">
-        <v>7.380693844538337</v>
+        <v>5.76459074771499</v>
       </c>
       <c r="O15">
-        <v>15.39794072794048</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.43992683101668</v>
+        <v>7.625947645261269</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>15.14027520244881</v>
+      </c>
+      <c r="R15">
+        <v>12.42055399596629</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.8471491226743</v>
+        <v>23.97458677610431</v>
       </c>
       <c r="C16">
-        <v>16.01605245735982</v>
+        <v>16.56745272598769</v>
       </c>
       <c r="D16">
-        <v>3.814734531634361</v>
+        <v>3.972669217741757</v>
       </c>
       <c r="E16">
-        <v>6.793948713630462</v>
+        <v>6.723225343803199</v>
       </c>
       <c r="F16">
-        <v>30.36477301423585</v>
+        <v>28.59861043460645</v>
       </c>
       <c r="G16">
-        <v>41.23328749410537</v>
+        <v>38.72337581824734</v>
       </c>
       <c r="I16">
-        <v>2.516988110201314</v>
+        <v>2.545703393752986</v>
       </c>
       <c r="J16">
-        <v>12.59269807905656</v>
+        <v>11.94853138424127</v>
       </c>
       <c r="K16">
-        <v>19.03831999223943</v>
+        <v>17.62304208697834</v>
       </c>
       <c r="L16">
-        <v>5.827413458448382</v>
+        <v>13.93005577626422</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>12.33787890983773</v>
       </c>
       <c r="N16">
-        <v>7.30450184013198</v>
+        <v>5.774394350513369</v>
       </c>
       <c r="O16">
-        <v>15.03388395474756</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.57189220029826</v>
+        <v>7.545527774711426</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.81552191307895</v>
+      </c>
+      <c r="R16">
+        <v>12.52166415549211</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.34589596356259</v>
+        <v>23.52979915035449</v>
       </c>
       <c r="C17">
-        <v>15.68979371877903</v>
+        <v>16.26906180922393</v>
       </c>
       <c r="D17">
-        <v>3.80625175116438</v>
+        <v>3.948231367585258</v>
       </c>
       <c r="E17">
-        <v>6.80354265383525</v>
+        <v>6.732528692843509</v>
       </c>
       <c r="F17">
-        <v>30.07100494178101</v>
+        <v>28.4362532359511</v>
       </c>
       <c r="G17">
-        <v>40.70028221209028</v>
+        <v>37.93572378687756</v>
       </c>
       <c r="I17">
-        <v>2.619941423420755</v>
+        <v>2.572051332503094</v>
       </c>
       <c r="J17">
-        <v>12.52925529453364</v>
+        <v>12.11825418810505</v>
       </c>
       <c r="K17">
-        <v>18.97897902781789</v>
+        <v>17.64248898626215</v>
       </c>
       <c r="L17">
-        <v>5.835199980490445</v>
+        <v>13.99500800068766</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.27609847781483</v>
       </c>
       <c r="N17">
-        <v>7.258541037636854</v>
+        <v>5.780378540650115</v>
       </c>
       <c r="O17">
-        <v>14.80739509992043</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.65320009613168</v>
+        <v>7.495763282081704</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.60674072658081</v>
+      </c>
+      <c r="R17">
+        <v>12.58631466773713</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.06703413377388</v>
+        <v>23.27829240216963</v>
       </c>
       <c r="C18">
-        <v>15.48624516591927</v>
+        <v>16.07330057450464</v>
       </c>
       <c r="D18">
-        <v>3.799483503371331</v>
+        <v>3.934540604176869</v>
       </c>
       <c r="E18">
-        <v>6.809342258367082</v>
+        <v>6.738439549743778</v>
       </c>
       <c r="F18">
-        <v>29.92806924604332</v>
+        <v>28.35445339158659</v>
       </c>
       <c r="G18">
-        <v>40.43826631069712</v>
+        <v>37.57811017257533</v>
       </c>
       <c r="I18">
-        <v>2.669211445864663</v>
+        <v>2.610025271996895</v>
       </c>
       <c r="J18">
-        <v>12.50228700174182</v>
+        <v>12.18934908123456</v>
       </c>
       <c r="K18">
-        <v>18.96511327788717</v>
+        <v>17.66520713822062</v>
       </c>
       <c r="L18">
-        <v>5.839752036009167</v>
+        <v>14.04056657583037</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.25104649044544</v>
       </c>
       <c r="N18">
-        <v>7.229043654472163</v>
+        <v>5.783745758440839</v>
       </c>
       <c r="O18">
-        <v>14.67889313802389</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.69996924552633</v>
+        <v>7.463717608167807</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.48605953156327</v>
+      </c>
+      <c r="R18">
+        <v>12.62332663472059</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.96129913570896</v>
+        <v>23.18121986055363</v>
       </c>
       <c r="C19">
-        <v>15.42727520402046</v>
+        <v>16.01562559745243</v>
       </c>
       <c r="D19">
-        <v>3.798761924094255</v>
+        <v>3.932000760079491</v>
       </c>
       <c r="E19">
-        <v>6.811177978508397</v>
+        <v>6.740400884014161</v>
       </c>
       <c r="F19">
-        <v>29.86040860441107</v>
+        <v>28.30579816327817</v>
       </c>
       <c r="G19">
-        <v>40.31532062697677</v>
+        <v>37.43235101140516</v>
       </c>
       <c r="I19">
-        <v>2.694018066763975</v>
+        <v>2.632463875050294</v>
       </c>
       <c r="J19">
-        <v>12.48639032525923</v>
+        <v>12.20088498479199</v>
       </c>
       <c r="K19">
-        <v>18.94574936534945</v>
+        <v>17.65795035208081</v>
       </c>
       <c r="L19">
-        <v>5.841267939174404</v>
+        <v>14.04484940333439</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.23105024738386</v>
       </c>
       <c r="N19">
-        <v>7.221689344030232</v>
+        <v>5.784926068544843</v>
       </c>
       <c r="O19">
-        <v>14.63296069996078</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.71593399860729</v>
+        <v>7.455390734914371</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>14.44241910717541</v>
+      </c>
+      <c r="R19">
+        <v>12.63677815432603</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.40076672289893</v>
+        <v>23.57913473355864</v>
       </c>
       <c r="C20">
-        <v>15.72373067608608</v>
+        <v>16.30086794434093</v>
       </c>
       <c r="D20">
-        <v>3.806984737960542</v>
+        <v>3.950394665839986</v>
       </c>
       <c r="E20">
-        <v>6.802526124436195</v>
+        <v>6.731504121484639</v>
       </c>
       <c r="F20">
-        <v>30.10415716098451</v>
+        <v>28.45677436904191</v>
       </c>
       <c r="G20">
-        <v>40.76047859522065</v>
+        <v>38.01755406213167</v>
       </c>
       <c r="I20">
-        <v>2.608080976800949</v>
+        <v>2.561843766763867</v>
       </c>
       <c r="J20">
-        <v>12.53664287409378</v>
+        <v>12.10447053412743</v>
       </c>
       <c r="K20">
-        <v>18.98669781440488</v>
+        <v>17.64250046319453</v>
       </c>
       <c r="L20">
-        <v>5.834370585320592</v>
+        <v>13.98965989169386</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.28417880840381</v>
       </c>
       <c r="N20">
-        <v>7.263141798201627</v>
+        <v>5.77973855964222</v>
       </c>
       <c r="O20">
-        <v>14.83184879437583</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.64451776244141</v>
+        <v>7.500816770651592</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.62954596673942</v>
+      </c>
+      <c r="R20">
+        <v>12.57925877673735</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.83903038494162</v>
+        <v>24.79682544024945</v>
       </c>
       <c r="C21">
-        <v>16.678092185058</v>
+        <v>17.08315382095482</v>
       </c>
       <c r="D21">
-        <v>3.834230167373071</v>
+        <v>4.05337338157362</v>
       </c>
       <c r="E21">
-        <v>6.774769514902405</v>
+        <v>6.709002811850204</v>
       </c>
       <c r="F21">
-        <v>30.95630363931951</v>
+        <v>28.76769517203845</v>
       </c>
       <c r="G21">
-        <v>42.2982856746955</v>
+        <v>40.89561354036754</v>
       </c>
       <c r="I21">
-        <v>2.694957698339003</v>
+        <v>2.704960895635506</v>
       </c>
       <c r="J21">
-        <v>12.7209816993222</v>
+        <v>11.21499879154137</v>
       </c>
       <c r="K21">
-        <v>19.1541084127881</v>
+        <v>17.49452713292634</v>
       </c>
       <c r="L21">
-        <v>5.811639578110136</v>
+        <v>13.73167141881917</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>12.40146824348998</v>
       </c>
       <c r="N21">
-        <v>7.402766095570815</v>
+        <v>5.761874276980599</v>
       </c>
       <c r="O21">
-        <v>15.48908955930295</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.40614270652583</v>
+        <v>7.646833847259733</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.20879790477371</v>
+      </c>
+      <c r="R21">
+        <v>12.39905128638351</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.75913972626671</v>
+        <v>25.59157406716236</v>
       </c>
       <c r="C22">
-        <v>17.26280427762964</v>
+        <v>17.54755959814048</v>
       </c>
       <c r="D22">
-        <v>3.850342882571366</v>
+        <v>4.12602325349027</v>
       </c>
       <c r="E22">
-        <v>6.757753901870375</v>
+        <v>6.697555351563333</v>
       </c>
       <c r="F22">
-        <v>31.55476904312725</v>
+        <v>28.98751890145392</v>
       </c>
       <c r="G22">
-        <v>43.36326071021505</v>
+        <v>42.91748640128336</v>
       </c>
       <c r="I22">
-        <v>2.874396527492227</v>
+        <v>2.847494774780725</v>
       </c>
       <c r="J22">
-        <v>12.85945294815104</v>
+        <v>10.6138067653993</v>
       </c>
       <c r="K22">
-        <v>19.30006151100285</v>
+        <v>17.41464708192682</v>
       </c>
       <c r="L22">
-        <v>5.797103169514227</v>
+        <v>13.57417507016685</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>12.50213306959693</v>
       </c>
       <c r="N22">
-        <v>7.491907487339078</v>
+        <v>5.75052201370812</v>
       </c>
       <c r="O22">
-        <v>15.91196674894838</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.25100304330816</v>
+        <v>7.738937116170641</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.5766265699049</v>
+      </c>
+      <c r="R22">
+        <v>12.28503706082365</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.28879275609293</v>
+        <v>25.19809659714318</v>
       </c>
       <c r="C23">
-        <v>16.93588874800068</v>
+        <v>17.31113184259266</v>
       </c>
       <c r="D23">
-        <v>3.838990665177118</v>
+        <v>4.075483699727874</v>
       </c>
       <c r="E23">
-        <v>6.766994254591531</v>
+        <v>6.702333302635502</v>
       </c>
       <c r="F23">
-        <v>31.2674373858689</v>
+        <v>28.94689574096437</v>
       </c>
       <c r="G23">
-        <v>42.85199269195792</v>
+        <v>41.71986160937831</v>
       </c>
       <c r="I23">
-        <v>2.774470110182532</v>
+        <v>2.766987151306024</v>
       </c>
       <c r="J23">
-        <v>12.79679199529445</v>
+        <v>11.05392896778495</v>
       </c>
       <c r="K23">
-        <v>19.24687138961145</v>
+        <v>17.5047674661159</v>
       </c>
       <c r="L23">
-        <v>5.804860544159797</v>
+        <v>13.69179545183059</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>12.48616368893397</v>
       </c>
       <c r="N23">
-        <v>7.439729645680073</v>
+        <v>5.756585467523477</v>
       </c>
       <c r="O23">
-        <v>15.69099795395578</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.33332602013525</v>
+        <v>7.686670609255891</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.39255174190485</v>
+      </c>
+      <c r="R23">
+        <v>12.34137812065661</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.40474501785051</v>
+        <v>23.58499710106558</v>
       </c>
       <c r="C24">
-        <v>15.68023432884382</v>
+        <v>16.25818991042456</v>
       </c>
       <c r="D24">
-        <v>3.802417180992063</v>
+        <v>3.944806314400161</v>
       </c>
       <c r="E24">
-        <v>6.803378115147559</v>
+        <v>6.732260287951199</v>
       </c>
       <c r="F24">
-        <v>30.14220313012257</v>
+        <v>28.49886201795534</v>
       </c>
       <c r="G24">
-        <v>40.82670823994286</v>
+        <v>38.07179291696939</v>
       </c>
       <c r="I24">
-        <v>2.59198046174395</v>
+        <v>2.541404282803743</v>
       </c>
       <c r="J24">
-        <v>12.55211108791001</v>
+        <v>12.1285717932882</v>
       </c>
       <c r="K24">
-        <v>19.0238898632419</v>
+        <v>17.68048266783625</v>
       </c>
       <c r="L24">
-        <v>5.834825307338378</v>
+        <v>14.02002820552144</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.3105843764102</v>
       </c>
       <c r="N24">
-        <v>7.254001320816071</v>
+        <v>5.779902098042348</v>
       </c>
       <c r="O24">
-        <v>14.82688940283019</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.64812558273021</v>
+        <v>7.491588122523497</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.62523188507191</v>
+      </c>
+      <c r="R24">
+        <v>12.58020923146705</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.21209440584987</v>
+        <v>21.50832147752576</v>
       </c>
       <c r="C25">
-        <v>14.22900910433555</v>
+        <v>14.71819652066957</v>
       </c>
       <c r="D25">
-        <v>3.767308609467501</v>
+        <v>3.898424560646911</v>
       </c>
       <c r="E25">
-        <v>6.846263480572151</v>
+        <v>6.780830572614736</v>
       </c>
       <c r="F25">
-        <v>28.96520994499144</v>
+        <v>27.54305804599561</v>
       </c>
       <c r="G25">
-        <v>38.65535729908623</v>
+        <v>36.08588723555511</v>
       </c>
       <c r="I25">
-        <v>3.025783999477602</v>
+        <v>2.91222225918468</v>
       </c>
       <c r="J25">
-        <v>12.31261806851674</v>
+        <v>11.9982529725056</v>
       </c>
       <c r="K25">
-        <v>18.82421518180075</v>
+        <v>17.63296477587121</v>
       </c>
       <c r="L25">
-        <v>5.868464463960919</v>
+        <v>14.18445261100517</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.99011452874465</v>
       </c>
       <c r="N25">
-        <v>7.064256877603964</v>
+        <v>5.804525421184447</v>
       </c>
       <c r="O25">
-        <v>13.85267875062281</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.99340300628396</v>
+        <v>7.276428776318182</v>
       </c>
       <c r="Q25">
+        <v>13.66862969997859</v>
+      </c>
+      <c r="R25">
+        <v>12.86908932228323</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
